--- a/data/trans_dic/P55_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada</t>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>82,24%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>94,08%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90,6%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>88,81%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>93,95%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>89,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>93,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>87,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>85,47%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,53; 97,57</t>
+          <t>83,81; 96,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,0; 92,15</t>
+          <t>80,77; 94,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,58; 96,89</t>
+          <t>76,45; 92,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,86; 93,63</t>
+          <t>72,42; 88,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,34; 96,27</t>
+          <t>89,51; 97,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,99; 91,54</t>
+          <t>84,24; 94,86</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>81,47; 93,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>81,29; 93,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>89,47; 96,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85,12; 93,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>80,74; 91,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>79,41; 89,59</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,77%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>87,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>85,96%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>88,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86,47%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>85,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>84,81%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,77; 92,71</t>
+          <t>77,48; 92,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,06; 90,7</t>
+          <t>77,2; 91,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,66; 94,08</t>
+          <t>75,16; 90,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,95; 90,85</t>
+          <t>76,43; 90,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,86; 92,63</t>
+          <t>85,41; 94,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,38; 89,57</t>
+          <t>82,51; 92,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>80,03; 91,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>79,06; 90,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82,66; 92,07</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81,58; 90,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>80,06; 89,29</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79,84; 88,71</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>85,42%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>80,15%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>93,97%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>75,47%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>93,96%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89,48%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>78,14%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>92,54%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83,09%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>92,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>79,19%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79,1%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,42; 95,26</t>
+          <t>82,35; 95,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,4; 85,51</t>
+          <t>77,61; 90,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,18; 96,23</t>
+          <t>73,5; 86,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,05; 82,87</t>
+          <t>67,1; 81,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,83; 94,89</t>
+          <t>91,16; 96,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,45; 83,25</t>
+          <t>85,64; 92,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>72,44; 83,54</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>77,22; 87,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87,74; 95,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83,81; 90,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>74,44; 83,09</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>73,87; 82,86</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>85,76%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>71,15%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>85,7%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>79,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>85,83%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>83,26%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>77,92%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>87,92%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>73,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>84,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>74,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>76,71%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,85; 93,94</t>
+          <t>83,05; 93,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,42; 77,73</t>
+          <t>76,89; 90,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,79; 88,94</t>
+          <t>62,63; 78,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,76; 83,46</t>
+          <t>73,19; 84,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,99; 90,61</t>
+          <t>81,95; 89,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,97; 78,41</t>
+          <t>79,0; 87,66</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72,29; 83,4</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>67,77; 79,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>84,03; 90,58</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>79,85; 87,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>69,19; 79,06</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72,54; 80,39</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>83,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>68,53%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>73,25%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80,83%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>68,47%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>82,72%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70,29%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>82,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>68,5%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>71,73%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,97; 88,02</t>
+          <t>78,68; 87,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,67; 75,7</t>
+          <t>77,49; 88,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,94; 85,98</t>
+          <t>61,07; 74,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,46; 74,71</t>
+          <t>66,44; 79,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,06; 85,73</t>
+          <t>76,23; 86,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,14; 72,95</t>
+          <t>74,27; 86,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>61,17; 73,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63,5; 76,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79,17; 85,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>77,75; 85,74</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63,47; 72,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>67,05; 76,51</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>87,57%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>73,67%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>85,45%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>84,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>81,14%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>73,91%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>77,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>86,47%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>83,97%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73,81%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>79,68%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,41; 93,21</t>
+          <t>83,43; 93,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>65,15; 80,29</t>
+          <t>81,3; 92,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,5; 89,9</t>
+          <t>65,45; 80,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,65; 81,4</t>
+          <t>75,74; 88,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>82,94; 90,24</t>
+          <t>77,18; 89,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,34; 79,36</t>
+          <t>70,14; 87,27</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65,0; 81,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>70,27; 83,7</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>81,5; 89,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>77,5; 87,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>67,69; 79,49</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>74,61; 83,98</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>86,07%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>77,3%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>88,61%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>79,45%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>88,44%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>85,32%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>78,14%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>88,97%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79,39%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>88,87%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>85,69%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>77,72%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>79,42%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>86,3; 91,27</t>
+          <t>86,47; 91,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73,98; 80,17</t>
+          <t>83,37; 88,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,78; 90,18</t>
+          <t>73,95; 80,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75,2; 80,65</t>
+          <t>76,73; 82,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,44; 90,35</t>
+          <t>86,38; 90,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,74; 79,7</t>
+          <t>82,61; 87,56</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>75,44; 80,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>76,8; 81,71</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>87,51; 90,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>83,89; 87,28</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>75,61; 79,57</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>77,47; 81,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>466488</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>406487</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35589</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34573</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>469748</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>426384</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32904</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33294</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>936236</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>832871</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68494</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>67867</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>421954; 486666</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>368999; 429674</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31615; 38172</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30444; 37326</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>446953; 484435</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>396440; 446437</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30188; 34712</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30376; 35064</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>897212; 962914</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>789433; 869599</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>63301; 71788</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63056; 71138</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>512858</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>489577</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41931</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39709</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>460836</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>437379</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38531</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39017</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>973694</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>926956</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>80462</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78725</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>454163; 543703</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>441887; 522456</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>37173; 44828</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36026; 42512</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>434970; 479176</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>412167; 459860</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35872; 40812</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36116; 41296</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>905486; 1008549</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>874556; 969480</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75478; 84183</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>74111; 82340</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>607.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>605592</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>564712</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46786</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45384</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>664040</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>632396</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41523</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45377</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1269631</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1197107</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>88310</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>90761</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>542935; 630001</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>513080; 595380</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42907; 50204</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40349; 49302</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>644238; 679706</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>605255; 655670</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38492; 44394</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42168; 47930</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1198594; 1297667</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1146331; 1241951</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>83013; 92657</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84756; 95069</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>598.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>568922</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>558557</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40407</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>44671</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>541836</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>539860</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39605</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38772</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1110758</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1098417</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80012</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>83442</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>525055; 593878</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>500782; 587186</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>35572; 44330</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41110; 47474</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>517349; 562792</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>512236; 568377</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36747; 42391</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35656; 41674</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1061696; 1144536</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1037782; 1139166</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>74459; 85091</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>78905; 87450</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>412067</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>412596</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29944</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31415</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>404545</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>407444</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33227</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31758</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>816612</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>820041</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>63172</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>63172</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>386777; 431883</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>382278; 437026</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26682; 32703</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28493; 34178</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>377033; 426517</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>374345; 436099</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29681; 35898</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28691; 34418</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>780788; 847267</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>775473; 855219</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>58527; 67311</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>59053; 67377</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>474967</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>486083</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>33606</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>37506</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>579832</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>573674</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>46345</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48885</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1054799</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1059758</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>79951</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>86391</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>444175; 495437</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>451279; 514125</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>29857; 36915</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>34249; 39973</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>530524; 612919</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>495899; 617031</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>40763; 51193</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>44411; 52898</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>994065; 1093307</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>978113; 1110135</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>73328; 86102</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>80893; 91049</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1200.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>887.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>699.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1442.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1075.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>837.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>864.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2642.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1962.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1536.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1572.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3040895</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2918011</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>228263</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>233257</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3120836</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3017137</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>232137</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>237101</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6161730</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5935148</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>460400</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>470359</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2944490; 3108875</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2826385; 2998722</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>218357; 236507</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>225269; 240873</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3048106; 3177075</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2921440; 3096607</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>224122; 239428</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>229359; 244020</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6067946; 6255331</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5810679; 6045358</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>447874; 471332</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>458822; 480448</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>